--- a/team_specific_matrix/UTRGV_A.xlsx
+++ b/team_specific_matrix/UTRGV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2089041095890411</v>
+        <v>0.2062146892655367</v>
       </c>
       <c r="C2">
-        <v>0.5273972602739726</v>
+        <v>0.5282485875706214</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01027397260273973</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1643835616438356</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08904109589041095</v>
+        <v>0.09887005649717515</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01265822784810127</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="C3">
-        <v>0.01265822784810127</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03164556962025317</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7278481012658228</v>
+        <v>0.7225130890052356</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2151898734177215</v>
+        <v>0.225130890052356</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6829268292682927</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3170731707317073</v>
+        <v>0.3265306122448979</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07575757575757576</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02272727272727273</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03787878787878788</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2803030303030303</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0303030303030303</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09848484848484848</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="R6">
-        <v>0.06060606060606061</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="S6">
-        <v>0.3939393939393939</v>
+        <v>0.4022988505747127</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01724137931034483</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02298850574712644</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1264367816091954</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005747126436781609</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1494252873563219</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R7">
-        <v>0.05747126436781609</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="S7">
-        <v>0.4540229885057471</v>
+        <v>0.4519230769230769</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.15625</v>
+        <v>0.1413934426229508</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01302083333333333</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="E8">
-        <v>0.002604166666666667</v>
+        <v>0.002049180327868853</v>
       </c>
       <c r="F8">
-        <v>0.05989583333333334</v>
+        <v>0.06352459016393443</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1045081967213115</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.015625</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1614583333333333</v>
+        <v>0.1864754098360656</v>
       </c>
       <c r="R8">
-        <v>0.05989583333333334</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="S8">
-        <v>0.40625</v>
+        <v>0.4118852459016393</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0990990990990991</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009009009009009009</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03603603603603604</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1531531531531531</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009009009009009009</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1801801801801802</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="R9">
-        <v>0.02702702702702703</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S9">
-        <v>0.4864864864864865</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1390498261877173</v>
+        <v>0.1316025067144136</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03360370799536501</v>
+        <v>0.03043867502238138</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04982618771726535</v>
+        <v>0.05729632945389436</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1066048667439166</v>
+        <v>0.1110116383169203</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02317497103128621</v>
+        <v>0.02327663384064458</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1969872537659328</v>
+        <v>0.2175470008952551</v>
       </c>
       <c r="R10">
-        <v>0.05330243337195829</v>
+        <v>0.05640107430617726</v>
       </c>
       <c r="S10">
-        <v>0.3974507531865585</v>
+        <v>0.3724261414503133</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.139344262295082</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0778688524590164</v>
+        <v>0.07023411371237458</v>
       </c>
       <c r="K11">
-        <v>0.2008196721311475</v>
+        <v>0.1939799331103679</v>
       </c>
       <c r="L11">
-        <v>0.5655737704918032</v>
+        <v>0.5886287625418061</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01639344262295082</v>
+        <v>0.01672240802675585</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7727272727272727</v>
+        <v>0.7679558011049724</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1363636363636364</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01298701298701299</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07792207792207792</v>
+        <v>0.05524861878453038</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006578947368421052</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1644736842105263</v>
+        <v>0.1472081218274112</v>
       </c>
       <c r="I15">
-        <v>0.05921052631578947</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="J15">
-        <v>0.3157894736842105</v>
+        <v>0.3045685279187818</v>
       </c>
       <c r="K15">
-        <v>0.08552631578947369</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0131578947368421</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05921052631578947</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2960526315789473</v>
+        <v>0.3248730964467005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01595744680851064</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1702127659574468</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="I16">
-        <v>0.06914893617021277</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="J16">
-        <v>0.398936170212766</v>
+        <v>0.4052863436123348</v>
       </c>
       <c r="K16">
-        <v>0.1117021276595745</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03191489361702127</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="N16">
-        <v>0.005319148936170213</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="O16">
-        <v>0.03191489361702127</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1648936170212766</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02439024390243903</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.240418118466899</v>
+        <v>0.2214111922141119</v>
       </c>
       <c r="I17">
-        <v>0.07317073170731707</v>
+        <v>0.07785888077858881</v>
       </c>
       <c r="J17">
-        <v>0.3519163763066202</v>
+        <v>0.3625304136253041</v>
       </c>
       <c r="K17">
-        <v>0.07665505226480836</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01393728222996516</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07665505226480836</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.1386861313868613</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0449438202247191</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1910112359550562</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="I18">
-        <v>0.1123595505617977</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.3820224719101123</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="K18">
-        <v>0.101123595505618</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02247191011235955</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05617977528089887</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0898876404494382</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02708124373119358</v>
+        <v>0.01713395638629283</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2276830491474423</v>
+        <v>0.2367601246105919</v>
       </c>
       <c r="I19">
-        <v>0.0551654964894684</v>
+        <v>0.05841121495327103</v>
       </c>
       <c r="J19">
-        <v>0.362086258776329</v>
+        <v>0.3582554517133956</v>
       </c>
       <c r="K19">
-        <v>0.1213640922768305</v>
+        <v>0.1183800623052959</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02808425275827483</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05416248746238716</v>
+        <v>0.05218068535825545</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1243731193580742</v>
+        <v>0.1355140186915888</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UTRGV_A.xlsx
+++ b/team_specific_matrix/UTRGV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2062146892655367</v>
+        <v>0.2021563342318059</v>
       </c>
       <c r="C2">
-        <v>0.5282485875706214</v>
+        <v>0.5336927223719676</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008474576271186441</v>
+        <v>0.008086253369272238</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1581920903954802</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09887005649717515</v>
+        <v>0.09703504043126684</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01047120418848168</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C3">
-        <v>0.01047120418848168</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03141361256544502</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7225130890052356</v>
+        <v>0.7277227722772277</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.225130890052356</v>
+        <v>0.2227722772277228</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02040816326530612</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6530612244897959</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3265306122448979</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07471264367816093</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02873563218390805</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04022988505747126</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2241379310344828</v>
+        <v>0.2233502538071066</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02873563218390805</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1264367816091954</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="R6">
-        <v>0.07471264367816093</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="S6">
-        <v>0.4022988505747127</v>
+        <v>0.3807106598984771</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1586538461538461</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01442307692307692</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02884615384615385</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1155555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01442307692307692</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.16</v>
       </c>
       <c r="R7">
-        <v>0.05288461538461538</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="S7">
-        <v>0.4519230769230769</v>
+        <v>0.4533333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1413934426229508</v>
+        <v>0.1317254174397031</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01229508196721311</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E8">
-        <v>0.002049180327868853</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="F8">
-        <v>0.06352459016393443</v>
+        <v>0.06679035250463822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1045081967213115</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02049180327868852</v>
+        <v>0.02226345083487941</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1864754098360656</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R8">
-        <v>0.05737704918032787</v>
+        <v>0.0575139146567718</v>
       </c>
       <c r="S8">
-        <v>0.4118852459016393</v>
+        <v>0.4211502782931354</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09027777777777778</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006944444444444444</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03472222222222222</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1180555555555556</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02083333333333333</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1736111111111111</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R9">
-        <v>0.04166666666666666</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="S9">
-        <v>0.5138888888888888</v>
+        <v>0.5114942528735632</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1316025067144136</v>
+        <v>0.1237785016286645</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03043867502238138</v>
+        <v>0.02931596091205212</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05729632945389436</v>
+        <v>0.06026058631921824</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1110116383169203</v>
+        <v>0.1091205211726384</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02327663384064458</v>
+        <v>0.02361563517915309</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2175470008952551</v>
+        <v>0.2117263843648209</v>
       </c>
       <c r="R10">
-        <v>0.05640107430617726</v>
+        <v>0.05618892508143322</v>
       </c>
       <c r="S10">
-        <v>0.3724261414503133</v>
+        <v>0.3859934853420195</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1304347826086956</v>
+        <v>0.1211180124223603</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07023411371237458</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K11">
-        <v>0.1939799331103679</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="L11">
-        <v>0.5886287625418061</v>
+        <v>0.5962732919254659</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01672240802675585</v>
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7679558011049724</v>
+        <v>0.7563451776649747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1657458563535912</v>
+        <v>0.16751269035533</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01104972375690608</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05524861878453038</v>
+        <v>0.06598984771573604</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02083333333333333</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.7291666666666666</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2083333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01015228426395939</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1472081218274112</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="I15">
-        <v>0.06598984771573604</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J15">
-        <v>0.3045685279187818</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="K15">
-        <v>0.07614213197969544</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01015228426395939</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06091370558375635</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3248730964467005</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01762114537444934</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1629955947136564</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="I16">
-        <v>0.06607929515418502</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="J16">
-        <v>0.4052863436123348</v>
+        <v>0.3941908713692946</v>
       </c>
       <c r="K16">
-        <v>0.1101321585903084</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03083700440528634</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="N16">
-        <v>0.004405286343612335</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O16">
-        <v>0.03083700440528634</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1718061674008811</v>
+        <v>0.1659751037344398</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0170316301703163</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2214111922141119</v>
+        <v>0.22271714922049</v>
       </c>
       <c r="I17">
-        <v>0.07785888077858881</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="J17">
-        <v>0.3625304136253041</v>
+        <v>0.3674832962138085</v>
       </c>
       <c r="K17">
-        <v>0.08029197080291971</v>
+        <v>0.08240534521158129</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0218978102189781</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08029197080291971</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1386861313868613</v>
+        <v>0.1291759465478842</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03333333333333333</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1833333333333333</v>
+        <v>0.1879699248120301</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J18">
-        <v>0.4083333333333333</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01666666666666667</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05833333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1166666666666667</v>
+        <v>0.1278195488721804</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01713395638629283</v>
+        <v>0.01535240753663643</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2367601246105919</v>
+        <v>0.2351709699930216</v>
       </c>
       <c r="I19">
-        <v>0.05841121495327103</v>
+        <v>0.0642009769713887</v>
       </c>
       <c r="J19">
-        <v>0.3582554517133956</v>
+        <v>0.3600837404047453</v>
       </c>
       <c r="K19">
-        <v>0.1183800623052959</v>
+        <v>0.115840893230984</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02336448598130841</v>
+        <v>0.02512212142358688</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05218068535825545</v>
+        <v>0.05163991625959526</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1355140186915888</v>
+        <v>0.1325889741800419</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UTRGV_A.xlsx
+++ b/team_specific_matrix/UTRGV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2021563342318059</v>
+        <v>0.2015706806282722</v>
       </c>
       <c r="C2">
-        <v>0.5336927223719676</v>
+        <v>0.5340314136125655</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008086253369272238</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1590296495956873</v>
+        <v>0.1596858638743456</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09703504043126684</v>
+        <v>0.09424083769633508</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C3">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0297029702970297</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7277227722772277</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2227722772277228</v>
+        <v>0.2163461538461539</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08629441624365482</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02538071065989848</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04568527918781726</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2233502538071066</v>
+        <v>0.2184466019417476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03045685279187817</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1319796954314721</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="R6">
-        <v>0.07614213197969544</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S6">
-        <v>0.3807106598984771</v>
+        <v>0.3932038834951456</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1555555555555556</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01777777777777778</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03111111111111111</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1155555555555556</v>
+        <v>0.1125541125541126</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01777777777777778</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.16</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="R7">
-        <v>0.04888888888888889</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S7">
-        <v>0.4533333333333333</v>
+        <v>0.4588744588744589</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1317254174397031</v>
+        <v>0.1310592459605027</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01298701298701299</v>
+        <v>0.0125673249551167</v>
       </c>
       <c r="E8">
-        <v>0.001855287569573284</v>
+        <v>0.001795332136445242</v>
       </c>
       <c r="F8">
-        <v>0.06679035250463822</v>
+        <v>0.06822262118491922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1020408163265306</v>
+        <v>0.1005385996409336</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02226345083487941</v>
+        <v>0.02154398563734291</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1836734693877551</v>
+        <v>0.1813285457809695</v>
       </c>
       <c r="R8">
-        <v>0.0575139146567718</v>
+        <v>0.059245960502693</v>
       </c>
       <c r="S8">
-        <v>0.4211502782931354</v>
+        <v>0.4236983842010772</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08620689655172414</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01149425287356322</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04022988505747126</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1091954022988506</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02298850574712644</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1724137931034483</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="R9">
-        <v>0.04597701149425287</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.5114942528735632</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1237785016286645</v>
+        <v>0.1232339089481947</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02931596091205212</v>
+        <v>0.0282574568288854</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06026058631921824</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1091205211726384</v>
+        <v>0.1067503924646782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02361563517915309</v>
+        <v>0.02354788069073784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2117263843648209</v>
+        <v>0.2150706436420722</v>
       </c>
       <c r="R10">
-        <v>0.05618892508143322</v>
+        <v>0.0565149136577708</v>
       </c>
       <c r="S10">
-        <v>0.3859934853420195</v>
+        <v>0.3854003139717426</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1211180124223603</v>
+        <v>0.1201201201201201</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06521739130434782</v>
+        <v>0.06606606606606606</v>
       </c>
       <c r="K11">
-        <v>0.1925465838509317</v>
+        <v>0.1921921921921922</v>
       </c>
       <c r="L11">
-        <v>0.5962732919254659</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02484472049689441</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7563451776649747</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.16751269035533</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01015228426395939</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06598984771573604</v>
+        <v>0.06372549019607843</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G13">
-        <v>0.7636363636363637</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03636363636363636</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01363636363636364</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1454545454545454</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="I15">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3090909090909091</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="K15">
-        <v>0.06818181818181818</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00909090909090909</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3181818181818182</v>
+        <v>0.3155555555555555</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01659751037344398</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1701244813278008</v>
+        <v>0.1659919028340081</v>
       </c>
       <c r="I16">
-        <v>0.07468879668049792</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J16">
-        <v>0.3941908713692946</v>
+        <v>0.3967611336032389</v>
       </c>
       <c r="K16">
-        <v>0.1120331950207469</v>
+        <v>0.1133603238866397</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03319502074688797</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="N16">
-        <v>0.004149377593360996</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="O16">
-        <v>0.02904564315352697</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1659751037344398</v>
+        <v>0.1659919028340081</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0155902004454343</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.22271714922049</v>
+        <v>0.2196162046908316</v>
       </c>
       <c r="I17">
-        <v>0.08685968819599109</v>
+        <v>0.08528784648187633</v>
       </c>
       <c r="J17">
-        <v>0.3674832962138085</v>
+        <v>0.3816631130063966</v>
       </c>
       <c r="K17">
-        <v>0.08240534521158129</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0200445434298441</v>
+        <v>0.01918976545842218</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07572383073496659</v>
+        <v>0.07249466950959488</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1291759465478842</v>
+        <v>0.1279317697228145</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03007518796992481</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1879699248120301</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="I18">
-        <v>0.1052631578947368</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J18">
-        <v>0.4060150375939849</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.07518796992481203</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01503759398496241</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05263157894736842</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1278195488721804</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01535240753663643</v>
+        <v>0.01557210561949898</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2351709699930216</v>
+        <v>0.2376438727149628</v>
       </c>
       <c r="I19">
-        <v>0.0642009769713887</v>
+        <v>0.06431956668923494</v>
       </c>
       <c r="J19">
-        <v>0.3600837404047453</v>
+        <v>0.3595125253893026</v>
       </c>
       <c r="K19">
-        <v>0.115840893230984</v>
+        <v>0.1157752200406229</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02512212142358688</v>
+        <v>0.02640487474610697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05163991625959526</v>
+        <v>0.05145565335138795</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1325889741800419</v>
+        <v>0.1293161814488829</v>
       </c>
     </row>
   </sheetData>
